--- a/ChapMeBatNgo.xlsx
+++ b/ChapMeBatNgo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Chấp mê bất ngộ</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Đừng vì vài cánh sóng hồi nho nhỏ mà đánh ngược xu hướng, ăn được 1 đồng thì trả thị trường 10 đồng, không đáng</t>
+  </si>
+  <si>
+    <t>thangbk236</t>
+  </si>
+  <si>
+    <t>SIGN</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -459,19 +465,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
